--- a/prac-6/task1/results.xlsx
+++ b/prac-6/task1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Projects/prac-CS-MSU/prac-6/task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EF158-1D90-8C4F-BEF2-076B98D501DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE90914-3720-1449-AC23-15FDC1AB26C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="18000" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/prac-6/task1/results.xlsx
+++ b/prac-6/task1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Projects/prac-CS-MSU/prac-6/task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE90914-3720-1449-AC23-15FDC1AB26C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FD68A8-8303-9F40-9BFC-23B75DE37FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>T1</t>
   </si>
@@ -316,6 +316,81 @@
   </si>
   <si>
     <t>1.24432e-09</t>
+  </si>
+  <si>
+    <t>0.000450</t>
+  </si>
+  <si>
+    <t>0.001148</t>
+  </si>
+  <si>
+    <t>0.001337</t>
+  </si>
+  <si>
+    <t>0.001683</t>
+  </si>
+  <si>
+    <t>0.001977</t>
+  </si>
+  <si>
+    <t>0.002511</t>
+  </si>
+  <si>
+    <t>0.002773</t>
+  </si>
+  <si>
+    <t>0.003717</t>
+  </si>
+  <si>
+    <t>0.004954</t>
+  </si>
+  <si>
+    <t>0.006473</t>
+  </si>
+  <si>
+    <t>0.006288</t>
+  </si>
+  <si>
+    <t>0.008532</t>
+  </si>
+  <si>
+    <t>0.012756</t>
+  </si>
+  <si>
+    <t>0.017123</t>
+  </si>
+  <si>
+    <t>0.016439</t>
+  </si>
+  <si>
+    <t>0.017782</t>
+  </si>
+  <si>
+    <t>0.019941</t>
+  </si>
+  <si>
+    <t>0.027537</t>
+  </si>
+  <si>
+    <t>0.040524</t>
+  </si>
+  <si>
+    <t>0.041154</t>
+  </si>
+  <si>
+    <t>0.036481</t>
+  </si>
+  <si>
+    <t>0.039391</t>
+  </si>
+  <si>
+    <t>0.051820</t>
+  </si>
+  <si>
+    <t>0.062373</t>
+  </si>
+  <si>
+    <t>T2 без omp</t>
   </si>
 </sst>
 </file>
@@ -340,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -409,17 +484,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -477,26 +541,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1688,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A8566-52C2-EB45-9F38-905B7728B007}">
-  <dimension ref="B1:F32"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,25 +1785,25 @@
     <col min="3" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>300</v>
       </c>
       <c r="D2" s="9">
         <v>1000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>3000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1735,7 +1820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1752,7 +1837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -1769,7 +1854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>8</v>
       </c>
@@ -1786,14 +1871,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1803,7 +1888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>32</v>
       </c>
@@ -1820,123 +1905,228 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>300</v>
       </c>
       <c r="D10" s="9">
         <v>1000</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>3000</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="12">
+        <v>300</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3000</v>
+      </c>
+      <c r="L10" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="J11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="4">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="4">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="5">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1945,16 +2135,16 @@
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>300</v>
       </c>
       <c r="D18" s="9">
         <v>1000</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="12">
         <v>3000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>6000</v>
       </c>
     </row>
@@ -1968,7 +2158,7 @@
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -1985,7 +2175,7 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2002,7 +2192,7 @@
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -2016,10 +2206,10 @@
       <c r="C22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -2033,10 +2223,10 @@
       <c r="C23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -2053,7 +2243,7 @@
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2065,16 +2255,16 @@
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>300</v>
       </c>
       <c r="D26" s="9">
         <v>1000</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="12">
         <v>3000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>6000</v>
       </c>
     </row>
@@ -2136,7 +2326,7 @@
       <c r="C30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2153,10 +2343,10 @@
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="7" t="s">
